--- a/Code/Results/Cases/Case_5_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.98779490604077</v>
+        <v>12.10079634308016</v>
       </c>
       <c r="C2">
-        <v>6.596205518716171</v>
+        <v>7.806623520735316</v>
       </c>
       <c r="D2">
-        <v>5.075079740085641</v>
+        <v>5.532385992127469</v>
       </c>
       <c r="E2">
-        <v>7.693200970167752</v>
+        <v>11.58203427379024</v>
       </c>
       <c r="F2">
-        <v>19.10076352937853</v>
+        <v>26.63433572022007</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>15.07619538779931</v>
+        <v>23.91549173517068</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.46662056121333</v>
+        <v>9.43443779019492</v>
       </c>
       <c r="L2">
-        <v>6.903756657919066</v>
+        <v>9.766658145443836</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.40708918401031</v>
+        <v>19.15499729034599</v>
       </c>
       <c r="O2">
-        <v>15.57145222558617</v>
+        <v>23.90746244434943</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.04585297669106</v>
+        <v>11.84286945263464</v>
       </c>
       <c r="C3">
-        <v>6.478588989101492</v>
+        <v>7.771582587444176</v>
       </c>
       <c r="D3">
-        <v>4.921767276060689</v>
+        <v>5.479148507636947</v>
       </c>
       <c r="E3">
-        <v>7.568141603893263</v>
+        <v>11.59103829459997</v>
       </c>
       <c r="F3">
-        <v>18.78000855545606</v>
+        <v>26.66347591426682</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>15.15514454120062</v>
+        <v>23.99452504884335</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.79556253814023</v>
+        <v>9.252926683634863</v>
       </c>
       <c r="L3">
-        <v>6.695299663320367</v>
+        <v>9.751873418653956</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.5965798642079</v>
+        <v>19.21249427670219</v>
       </c>
       <c r="O3">
-        <v>15.53537441673243</v>
+        <v>23.97201195760582</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.43294941616453</v>
+        <v>11.68376696587784</v>
       </c>
       <c r="C4">
-        <v>6.405138131695177</v>
+        <v>7.749725850356137</v>
       </c>
       <c r="D4">
-        <v>4.824554888005828</v>
+        <v>5.445647036927164</v>
       </c>
       <c r="E4">
-        <v>7.494796560344866</v>
+        <v>11.5986168572705</v>
       </c>
       <c r="F4">
-        <v>18.59631739616702</v>
+        <v>26.68775224722884</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>15.21420159561766</v>
+        <v>24.04722864910903</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.36139583242597</v>
+        <v>9.141145780801949</v>
       </c>
       <c r="L4">
-        <v>6.567449991047217</v>
+        <v>9.744480418479366</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.71563675389847</v>
+        <v>19.24945974440285</v>
       </c>
       <c r="O4">
-        <v>15.52517347867705</v>
+        <v>24.01630033891847</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.17445206044348</v>
+        <v>11.618840151422</v>
       </c>
       <c r="C5">
-        <v>6.374913968826103</v>
+        <v>7.74073552356916</v>
       </c>
       <c r="D5">
-        <v>4.784198952261312</v>
+        <v>5.431795931979108</v>
       </c>
       <c r="E5">
-        <v>7.465793854509135</v>
+        <v>11.60222110865904</v>
       </c>
       <c r="F5">
-        <v>18.52480825421464</v>
+        <v>26.69924887635836</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>15.24083169685342</v>
+        <v>24.06975541000674</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.17894359679215</v>
+        <v>9.095571915532995</v>
       </c>
       <c r="L5">
-        <v>6.515461235507737</v>
+        <v>9.741893993362991</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.76485288608779</v>
+        <v>19.2649426252255</v>
       </c>
       <c r="O5">
-        <v>15.52392727279581</v>
+        <v>24.0355170875302</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.13099988344629</v>
+        <v>11.60805637304841</v>
       </c>
       <c r="C6">
-        <v>6.369878154115162</v>
+        <v>7.739237709746671</v>
       </c>
       <c r="D6">
-        <v>4.777454141523556</v>
+        <v>5.429484112745595</v>
       </c>
       <c r="E6">
-        <v>7.461032040533386</v>
+        <v>11.60285076176948</v>
       </c>
       <c r="F6">
-        <v>18.51313650489498</v>
+        <v>26.70125469272139</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>15.24540566947997</v>
+        <v>24.07355933556625</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.14831526404345</v>
+        <v>9.088004884535557</v>
       </c>
       <c r="L6">
-        <v>6.506837506761494</v>
+        <v>9.74149033632621</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.77306795661461</v>
+        <v>19.26753889712439</v>
       </c>
       <c r="O6">
-        <v>15.52389333114265</v>
+        <v>24.03877856229977</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.42949865686893</v>
+        <v>11.6828915842827</v>
       </c>
       <c r="C7">
-        <v>6.404731677417655</v>
+        <v>7.749604938791737</v>
       </c>
       <c r="D7">
-        <v>4.82401358870108</v>
+        <v>5.445461034353205</v>
       </c>
       <c r="E7">
-        <v>7.494401807026374</v>
+        <v>11.59866337605382</v>
       </c>
       <c r="F7">
-        <v>18.59533943950997</v>
+        <v>26.68790080346021</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>15.21455048373409</v>
+        <v>24.04752820394362</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.35895752774459</v>
+        <v>9.1405311637666</v>
       </c>
       <c r="L7">
-        <v>6.566748301329588</v>
+        <v>9.744443807813489</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.71629764395347</v>
+        <v>19.24966685321435</v>
       </c>
       <c r="O7">
-        <v>15.52514501306583</v>
+        <v>24.01655477218276</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.67015518207345</v>
+        <v>12.01207071404883</v>
       </c>
       <c r="C8">
-        <v>6.555917863766809</v>
+        <v>7.794613675786078</v>
       </c>
       <c r="D8">
-        <v>5.022875166089085</v>
+        <v>5.514201840355757</v>
       </c>
       <c r="E8">
-        <v>7.649379114284878</v>
+        <v>11.58471366770203</v>
       </c>
       <c r="F8">
-        <v>18.98742811620564</v>
+        <v>26.6430575122456</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>15.10116159886556</v>
+        <v>23.94187511864748</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.23985335869051</v>
+        <v>9.371958097378004</v>
       </c>
       <c r="L8">
-        <v>6.831894543639925</v>
+        <v>9.76121232099957</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.47187463217675</v>
+        <v>19.17447801559574</v>
       </c>
       <c r="O8">
-        <v>15.55647626658281</v>
+        <v>23.92875210476652</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.83110776628513</v>
+        <v>12.64781604723911</v>
       </c>
       <c r="C9">
-        <v>6.841873264388869</v>
+        <v>7.880065451616522</v>
       </c>
       <c r="D9">
-        <v>5.387137852993976</v>
+        <v>5.642310592605134</v>
       </c>
       <c r="E9">
-        <v>7.979603943648891</v>
+        <v>11.573600805374</v>
       </c>
       <c r="F9">
-        <v>19.86036303793267</v>
+        <v>26.60581671573269</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>14.96723999264852</v>
+        <v>23.7678609001782</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.79059753052296</v>
+        <v>9.820533568007528</v>
       </c>
       <c r="L9">
-        <v>7.349920675303359</v>
+        <v>9.807338077962722</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.01318119533989</v>
+        <v>19.04016478107063</v>
       </c>
       <c r="O9">
-        <v>15.71680426910098</v>
+        <v>23.79357204852326</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.25597902375615</v>
+        <v>13.10391677660665</v>
       </c>
       <c r="C10">
-        <v>7.044663795424742</v>
+        <v>7.941001037241257</v>
       </c>
       <c r="D10">
-        <v>5.637594039482729</v>
+        <v>5.732044923334734</v>
       </c>
       <c r="E10">
-        <v>8.236845785786251</v>
+        <v>11.57529813437912</v>
       </c>
       <c r="F10">
-        <v>20.56310043955514</v>
+        <v>26.60937968931758</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>14.92905758894639</v>
+        <v>23.660274766169</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.82159898585623</v>
+        <v>10.14353965717135</v>
       </c>
       <c r="L10">
-        <v>7.725611930033774</v>
+        <v>9.849114170829566</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.68746239299736</v>
+        <v>18.94941055842197</v>
       </c>
       <c r="O10">
-        <v>15.90017699180231</v>
+        <v>23.7168987324118</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.86950921163908</v>
+        <v>13.30804777275081</v>
       </c>
       <c r="C11">
-        <v>7.135171844359441</v>
+        <v>7.968293261224357</v>
       </c>
       <c r="D11">
-        <v>5.74754708293134</v>
+        <v>5.771852039404568</v>
       </c>
       <c r="E11">
-        <v>8.356734853857846</v>
+        <v>11.57819981610823</v>
       </c>
       <c r="F11">
-        <v>20.89557309256202</v>
+        <v>26.61770420217657</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>14.92615910356877</v>
+        <v>23.61573911751124</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.26715688550798</v>
+        <v>10.28839555327024</v>
       </c>
       <c r="L11">
-        <v>7.894787780118443</v>
+        <v>9.869786500056872</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.54143436995789</v>
+        <v>18.90982808009816</v>
       </c>
       <c r="O11">
-        <v>15.99888749251494</v>
+        <v>23.686950889831</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.09690903048147</v>
+        <v>13.38479004859968</v>
       </c>
       <c r="C12">
-        <v>7.169182578284261</v>
+        <v>7.978564171255298</v>
       </c>
       <c r="D12">
-        <v>5.788592934227181</v>
+        <v>5.786775071971398</v>
       </c>
       <c r="E12">
-        <v>8.402520093118419</v>
+        <v>11.57960350616724</v>
       </c>
       <c r="F12">
-        <v>21.02326059142684</v>
+        <v>26.62181816394565</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>14.92725992592781</v>
+        <v>23.59950889257083</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.43251811586354</v>
+        <v>10.34289794469986</v>
       </c>
       <c r="L12">
-        <v>7.958554083225043</v>
+        <v>9.877850148114723</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.48641961026761</v>
+        <v>18.89508272776646</v>
       </c>
       <c r="O12">
-        <v>16.03854536583733</v>
+        <v>23.67632060275335</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.04815286533968</v>
+        <v>13.36828818258235</v>
       </c>
       <c r="C13">
-        <v>7.161869618976481</v>
+        <v>7.976355036953383</v>
       </c>
       <c r="D13">
-        <v>5.779779528625481</v>
+        <v>5.783567931326285</v>
       </c>
       <c r="E13">
-        <v>8.392642675314276</v>
+        <v>11.57928765979964</v>
       </c>
       <c r="F13">
-        <v>20.99568214385117</v>
+        <v>26.62088942460478</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>14.92692318175751</v>
+        <v>23.60297613003968</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.39705391348612</v>
+        <v>10.33117630523471</v>
       </c>
       <c r="L13">
-        <v>7.944834777941264</v>
+        <v>9.876103096783426</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.49825586027212</v>
+        <v>18.89824758291795</v>
       </c>
       <c r="O13">
-        <v>16.02990178921462</v>
+        <v>23.67857841651375</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.88831604875082</v>
+        <v>13.31437299903581</v>
       </c>
       <c r="C14">
-        <v>7.137975256954242</v>
+        <v>7.969139553743609</v>
       </c>
       <c r="D14">
-        <v>5.750935891327927</v>
+        <v>5.773082823635057</v>
       </c>
       <c r="E14">
-        <v>8.360494049109835</v>
+        <v>11.57830919649056</v>
       </c>
       <c r="F14">
-        <v>20.90604249888058</v>
+        <v>26.61802340357041</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>14.92620493081956</v>
+        <v>23.61439112654339</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.28082855171312</v>
+        <v>10.2928868279459</v>
       </c>
       <c r="L14">
-        <v>7.900040077749739</v>
+        <v>9.870445207883723</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.53690275326338</v>
+        <v>18.90861009367865</v>
       </c>
       <c r="O14">
-        <v>16.00210407025996</v>
+        <v>23.68606208768932</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.789770819358</v>
+        <v>13.28127360128539</v>
       </c>
       <c r="C15">
-        <v>7.123304724471648</v>
+        <v>7.964711443115448</v>
       </c>
       <c r="D15">
-        <v>5.733190859721516</v>
+        <v>5.766640564892798</v>
       </c>
       <c r="E15">
-        <v>8.340851562261108</v>
+        <v>11.57774952172591</v>
       </c>
       <c r="F15">
-        <v>20.85136683618363</v>
+        <v>26.6163930353564</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>14.92605479409283</v>
+        <v>23.62146579319922</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.20919974687734</v>
+        <v>10.26938616094696</v>
       </c>
       <c r="L15">
-        <v>7.872562033960026</v>
+        <v>9.867010119700675</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.56061115532574</v>
+        <v>18.91498913221542</v>
       </c>
       <c r="O15">
-        <v>15.98537614772722</v>
+        <v>23.69073858887814</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.21519053615352</v>
+        <v>13.09050230327988</v>
       </c>
       <c r="C16">
-        <v>7.038712747432337</v>
+        <v>7.939208600958931</v>
       </c>
       <c r="D16">
-        <v>5.630326603090405</v>
+        <v>5.729422582481519</v>
       </c>
       <c r="E16">
-        <v>8.229066177715847</v>
+        <v>11.57515124425612</v>
       </c>
       <c r="F16">
-        <v>20.54162553825999</v>
+        <v>26.60897037680436</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>14.92954821284375</v>
+        <v>23.66327401007952</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.79200959485436</v>
+        <v>10.13402658029062</v>
       </c>
       <c r="L16">
-        <v>7.71451683296715</v>
+        <v>9.847796383836684</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.69704666332437</v>
+        <v>18.95203152371473</v>
       </c>
       <c r="O16">
-        <v>15.89404063964283</v>
+        <v>23.71895523006406</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.85386583758478</v>
+        <v>12.97255638267753</v>
       </c>
       <c r="C17">
-        <v>6.986362923304388</v>
+        <v>7.923452068694059</v>
       </c>
       <c r="D17">
-        <v>5.566189142249092</v>
+        <v>5.706327144515806</v>
       </c>
       <c r="E17">
-        <v>8.161204943160689</v>
+        <v>11.57410181903316</v>
       </c>
       <c r="F17">
-        <v>20.354848945627</v>
+        <v>26.60613238297502</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>14.9354807544424</v>
+        <v>23.69005108738343</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.53007623773371</v>
+        <v>10.05041677820501</v>
       </c>
       <c r="L17">
-        <v>7.617082161113544</v>
+        <v>9.836433597326931</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.78127678442445</v>
+        <v>18.97519099888724</v>
       </c>
       <c r="O17">
-        <v>15.84198400189916</v>
+        <v>23.73752914068237</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.64277673933112</v>
+        <v>12.90440576127786</v>
       </c>
       <c r="C18">
-        <v>6.956089321331762</v>
+        <v>7.914349225857409</v>
       </c>
       <c r="D18">
-        <v>5.528925228697059</v>
+        <v>5.692948174550048</v>
       </c>
       <c r="E18">
-        <v>8.122444508420527</v>
+        <v>11.57369875327263</v>
       </c>
       <c r="F18">
-        <v>20.24862744732665</v>
+        <v>26.60513121720889</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>14.94024792240985</v>
+        <v>23.70586719831692</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.37721087645247</v>
+        <v>10.00213366866289</v>
       </c>
       <c r="L18">
-        <v>7.560880163419695</v>
+        <v>9.830055320117063</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.82992703839494</v>
+        <v>18.9886719876345</v>
       </c>
       <c r="O18">
-        <v>15.81347742861201</v>
+        <v>23.7486764515868</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.57074331982924</v>
+        <v>12.88128006603409</v>
       </c>
       <c r="C19">
-        <v>6.945811536157017</v>
+        <v>7.911260350286736</v>
       </c>
       <c r="D19">
-        <v>5.51624472418183</v>
+        <v>5.688402118927251</v>
       </c>
       <c r="E19">
-        <v>8.109368355751064</v>
+        <v>11.57359676227045</v>
       </c>
       <c r="F19">
-        <v>20.21287164715898</v>
+        <v>26.60490070254715</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>14.94209115897025</v>
+        <v>23.71129344923836</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.3250738140976</v>
+        <v>9.985754333432983</v>
       </c>
       <c r="L19">
-        <v>7.541825206624472</v>
+        <v>9.82792289047288</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.84643484531615</v>
+        <v>18.99326397869739</v>
       </c>
       <c r="O19">
-        <v>15.80406957455489</v>
+        <v>23.75253040790435</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.89266697853762</v>
+        <v>12.98514470506759</v>
       </c>
       <c r="C20">
-        <v>6.991952652200939</v>
+        <v>7.925133547471465</v>
       </c>
       <c r="D20">
-        <v>5.57305550778089</v>
+        <v>5.708795573271603</v>
       </c>
       <c r="E20">
-        <v>8.168400978535965</v>
+        <v>11.57419278657865</v>
       </c>
       <c r="F20">
-        <v>20.37460704500031</v>
+        <v>26.60636918260657</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>14.9347081491937</v>
+        <v>23.68715770100502</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.55818797805507</v>
+        <v>10.05933754245596</v>
       </c>
       <c r="L20">
-        <v>7.627471194445117</v>
+        <v>9.837626936683936</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.77228948039151</v>
+        <v>18.97270905362506</v>
       </c>
       <c r="O20">
-        <v>15.84737641223717</v>
+        <v>23.73550387549554</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.93539739459553</v>
+        <v>13.33022490981783</v>
       </c>
       <c r="C21">
-        <v>7.14500082912121</v>
+        <v>7.971260675105239</v>
       </c>
       <c r="D21">
-        <v>5.759424141276823</v>
+        <v>5.776166695240981</v>
       </c>
       <c r="E21">
-        <v>8.369926615465454</v>
+        <v>11.57858833195216</v>
       </c>
       <c r="F21">
-        <v>20.9323237448665</v>
+        <v>26.61883914704019</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>14.92635529006301</v>
+        <v>23.61102103924868</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.31505788850753</v>
+        <v>10.30414331252327</v>
       </c>
       <c r="L21">
-        <v>7.913205779769898</v>
+        <v>9.8721007123519</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.52554375546593</v>
+        <v>18.90555976843399</v>
       </c>
       <c r="O21">
-        <v>16.01020649126242</v>
+        <v>23.68384466560804</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.58816689141472</v>
+        <v>13.55247251133379</v>
       </c>
       <c r="C22">
-        <v>7.243490905081683</v>
+        <v>8.001032829154529</v>
       </c>
       <c r="D22">
-        <v>5.8777752599379</v>
+        <v>5.819314777366543</v>
       </c>
       <c r="E22">
-        <v>8.503872750186639</v>
+        <v>11.58323743435724</v>
       </c>
       <c r="F22">
-        <v>21.30721803967109</v>
+        <v>26.63259257871167</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>14.93376578166941</v>
+        <v>23.56495984128352</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.79012918155674</v>
+        <v>10.46206784295274</v>
       </c>
       <c r="L22">
-        <v>8.098201209598678</v>
+        <v>9.896001682267167</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.36591721001439</v>
+        <v>18.86309364759257</v>
       </c>
       <c r="O22">
-        <v>16.12993895770436</v>
+        <v>23.65422306656907</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.24238144175624</v>
+        <v>13.43417882414663</v>
       </c>
       <c r="C23">
-        <v>7.191069034068449</v>
+        <v>7.985177989911685</v>
       </c>
       <c r="D23">
-        <v>5.814930348729993</v>
+        <v>5.796368331222733</v>
       </c>
       <c r="E23">
-        <v>8.432186969960496</v>
+        <v>11.58059407401657</v>
       </c>
       <c r="F23">
-        <v>21.10619598733109</v>
+        <v>26.62474035947557</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>14.92859389489839</v>
+        <v>23.58920486294764</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.53836207880213</v>
+        <v>10.37798639862415</v>
       </c>
       <c r="L23">
-        <v>7.999640021740515</v>
+        <v>9.883121417262997</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.45097194760706</v>
+        <v>18.88562905697027</v>
       </c>
       <c r="O23">
-        <v>16.06479226793631</v>
+        <v>23.66965344220571</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.8751354482844</v>
+        <v>12.97945458376315</v>
       </c>
       <c r="C24">
-        <v>6.989426086113541</v>
+        <v>7.92437348841417</v>
       </c>
       <c r="D24">
-        <v>5.569952438600087</v>
+        <v>5.707679911113568</v>
       </c>
       <c r="E24">
-        <v>8.165146858087883</v>
+        <v>11.57415103626326</v>
       </c>
       <c r="F24">
-        <v>20.36567079470876</v>
+        <v>26.60626016156971</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>14.93505322780763</v>
+        <v>23.68846448775505</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.5454857513941</v>
+        <v>10.05530512974312</v>
       </c>
       <c r="L24">
-        <v>7.622774886539764</v>
+        <v>9.837086946882662</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.77635193709177</v>
+        <v>18.97383062297893</v>
       </c>
       <c r="O24">
-        <v>15.84493408197736</v>
+        <v>23.73641803731202</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.27532021624048</v>
+        <v>12.47741139755568</v>
       </c>
       <c r="C25">
-        <v>6.765737377382044</v>
+        <v>7.857263008752606</v>
       </c>
       <c r="D25">
-        <v>5.29151299924404</v>
+        <v>5.608402410629573</v>
       </c>
       <c r="E25">
-        <v>7.887594750814643</v>
+        <v>11.57487169976249</v>
       </c>
       <c r="F25">
-        <v>19.61325456630844</v>
+        <v>26.61045916878746</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>14.99336090517303</v>
+        <v>23.81138094591088</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.39009582770567</v>
+        <v>9.70010032817901</v>
       </c>
       <c r="L25">
-        <v>7.210393468073269</v>
+        <v>9.793460124805856</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.1351914517094</v>
+        <v>19.07510250535228</v>
       </c>
       <c r="O25">
-        <v>15.66228295593877</v>
+        <v>23.82617115558732</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.10079634308016</v>
+        <v>13.98779490604077</v>
       </c>
       <c r="C2">
-        <v>7.806623520735316</v>
+        <v>6.596205518716053</v>
       </c>
       <c r="D2">
-        <v>5.532385992127469</v>
+        <v>5.075079740085742</v>
       </c>
       <c r="E2">
-        <v>11.58203427379024</v>
+        <v>7.693200970167793</v>
       </c>
       <c r="F2">
-        <v>26.63433572022007</v>
+        <v>19.10076352937851</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
-        <v>23.91549173517068</v>
+        <v>15.07619538779933</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.43443779019492</v>
+        <v>11.46662056121333</v>
       </c>
       <c r="L2">
-        <v>9.766658145443836</v>
+        <v>6.903756657919059</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.15499729034599</v>
+        <v>12.40708918401031</v>
       </c>
       <c r="O2">
-        <v>23.90746244434943</v>
+        <v>15.57145222558618</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.84286945263464</v>
+        <v>13.04585297669107</v>
       </c>
       <c r="C3">
-        <v>7.771582587444176</v>
+        <v>6.478588989101364</v>
       </c>
       <c r="D3">
-        <v>5.479148507636947</v>
+        <v>4.921767276060669</v>
       </c>
       <c r="E3">
-        <v>11.59103829459997</v>
+        <v>7.568141603893273</v>
       </c>
       <c r="F3">
-        <v>26.66347591426682</v>
+        <v>18.78000855545613</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>23.99452504884335</v>
+        <v>15.15514454120064</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.252926683634863</v>
+        <v>10.79556253814021</v>
       </c>
       <c r="L3">
-        <v>9.751873418653956</v>
+        <v>6.695299663320407</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.21249427670219</v>
+        <v>12.5965798642079</v>
       </c>
       <c r="O3">
-        <v>23.97201195760582</v>
+        <v>15.53537441673247</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.68376696587784</v>
+        <v>12.43294941616448</v>
       </c>
       <c r="C4">
-        <v>7.749725850356137</v>
+        <v>6.405138131695691</v>
       </c>
       <c r="D4">
-        <v>5.445647036927164</v>
+        <v>4.824554888005752</v>
       </c>
       <c r="E4">
-        <v>11.5986168572705</v>
+        <v>7.494796560344905</v>
       </c>
       <c r="F4">
-        <v>26.68775224722884</v>
+        <v>18.59631739616694</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>24.04722864910903</v>
+        <v>15.21420159561769</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.141145780801949</v>
+        <v>10.36139583242603</v>
       </c>
       <c r="L4">
-        <v>9.744480418479366</v>
+        <v>6.567449991047162</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.24945974440285</v>
+        <v>12.71563675389847</v>
       </c>
       <c r="O4">
-        <v>24.01630033891847</v>
+        <v>15.52517347867698</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.618840151422</v>
+        <v>12.17445206044345</v>
       </c>
       <c r="C5">
-        <v>7.74073552356916</v>
+        <v>6.374913968826339</v>
       </c>
       <c r="D5">
-        <v>5.431795931979108</v>
+        <v>4.78419895226132</v>
       </c>
       <c r="E5">
-        <v>11.60222110865904</v>
+        <v>7.465793854509142</v>
       </c>
       <c r="F5">
-        <v>26.69924887635836</v>
+        <v>18.52480825421466</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>24.06975541000674</v>
+        <v>15.24083169685349</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.095571915532995</v>
+        <v>10.17894359679214</v>
       </c>
       <c r="L5">
-        <v>9.741893993362991</v>
+        <v>6.515461235507697</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.2649426252255</v>
+        <v>12.76485288608779</v>
       </c>
       <c r="O5">
-        <v>24.0355170875302</v>
+        <v>15.52392727279582</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.60805637304841</v>
+        <v>12.13099988344624</v>
       </c>
       <c r="C6">
-        <v>7.739237709746671</v>
+        <v>6.369878154115527</v>
       </c>
       <c r="D6">
-        <v>5.429484112745595</v>
+        <v>4.77745414152362</v>
       </c>
       <c r="E6">
-        <v>11.60285076176948</v>
+        <v>7.461032040533443</v>
       </c>
       <c r="F6">
-        <v>26.70125469272139</v>
+        <v>18.51313650489505</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>24.07355933556625</v>
+        <v>15.24540566948017</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.088004884535557</v>
+        <v>10.14831526404344</v>
       </c>
       <c r="L6">
-        <v>9.74149033632621</v>
+        <v>6.506837506761502</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.26753889712439</v>
+        <v>12.77306795661468</v>
       </c>
       <c r="O6">
-        <v>24.03877856229977</v>
+        <v>15.52389333114278</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.6828915842827</v>
+        <v>12.42949865686897</v>
       </c>
       <c r="C7">
-        <v>7.749604938791737</v>
+        <v>6.404731677417512</v>
       </c>
       <c r="D7">
-        <v>5.445461034353205</v>
+        <v>4.824013588701124</v>
       </c>
       <c r="E7">
-        <v>11.59866337605382</v>
+        <v>7.494401807026327</v>
       </c>
       <c r="F7">
-        <v>26.68790080346021</v>
+        <v>18.59533943950989</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>24.04752820394362</v>
+        <v>15.21455048373405</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.1405311637666</v>
+        <v>10.35895752774462</v>
       </c>
       <c r="L7">
-        <v>9.744443807813489</v>
+        <v>6.566748301329516</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.24966685321435</v>
+        <v>12.71629764395347</v>
       </c>
       <c r="O7">
-        <v>24.01655477218276</v>
+        <v>15.52514501306579</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.01207071404883</v>
+        <v>13.6701551820734</v>
       </c>
       <c r="C8">
-        <v>7.794613675786078</v>
+        <v>6.555917863766936</v>
       </c>
       <c r="D8">
-        <v>5.514201840355757</v>
+        <v>5.022875166088983</v>
       </c>
       <c r="E8">
-        <v>11.58471366770203</v>
+        <v>7.649379114284921</v>
       </c>
       <c r="F8">
-        <v>26.6430575122456</v>
+        <v>18.98742811620583</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>23.94187511864748</v>
+        <v>15.10116159886574</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.371958097378004</v>
+        <v>11.2398533586905</v>
       </c>
       <c r="L8">
-        <v>9.76121232099957</v>
+        <v>6.83189454363992</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.17447801559574</v>
+        <v>12.47187463217686</v>
       </c>
       <c r="O8">
-        <v>23.92875210476652</v>
+        <v>15.55647626658295</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.64781604723911</v>
+        <v>15.83110776628513</v>
       </c>
       <c r="C9">
-        <v>7.880065451616522</v>
+        <v>6.841873264388862</v>
       </c>
       <c r="D9">
-        <v>5.642310592605134</v>
+        <v>5.387137852994093</v>
       </c>
       <c r="E9">
-        <v>11.573600805374</v>
+        <v>7.979603943648921</v>
       </c>
       <c r="F9">
-        <v>26.60581671573269</v>
+        <v>19.86036303793264</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>23.7678609001782</v>
+        <v>14.96723999264852</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.820533568007528</v>
+        <v>12.79059753052296</v>
       </c>
       <c r="L9">
-        <v>9.807338077962722</v>
+        <v>7.349920675303377</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.04016478107063</v>
+        <v>12.01318119533989</v>
       </c>
       <c r="O9">
-        <v>23.79357204852326</v>
+        <v>15.71680426910098</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.10391677660665</v>
+        <v>17.25597902375625</v>
       </c>
       <c r="C10">
-        <v>7.941001037241257</v>
+        <v>7.044663795424726</v>
       </c>
       <c r="D10">
-        <v>5.732044923334734</v>
+        <v>5.637594039482787</v>
       </c>
       <c r="E10">
-        <v>11.57529813437912</v>
+        <v>8.236845785786231</v>
       </c>
       <c r="F10">
-        <v>26.60937968931758</v>
+        <v>20.56310043955499</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>23.660274766169</v>
+        <v>14.9290575889462</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.14353965717135</v>
+        <v>13.8215989858563</v>
       </c>
       <c r="L10">
-        <v>9.849114170829566</v>
+        <v>7.725611930033762</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.94941055842197</v>
+        <v>11.68746239299722</v>
       </c>
       <c r="O10">
-        <v>23.7168987324118</v>
+        <v>15.90017699180214</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.30804777275081</v>
+        <v>17.86950921163911</v>
       </c>
       <c r="C11">
-        <v>7.968293261224357</v>
+        <v>7.135171844359424</v>
       </c>
       <c r="D11">
-        <v>5.771852039404568</v>
+        <v>5.747547082931328</v>
       </c>
       <c r="E11">
-        <v>11.57819981610823</v>
+        <v>8.356734853857754</v>
       </c>
       <c r="F11">
-        <v>26.61770420217657</v>
+        <v>20.89557309256192</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>23.61573911751124</v>
+        <v>14.92615910356869</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.28839555327024</v>
+        <v>14.267156885508</v>
       </c>
       <c r="L11">
-        <v>9.869786500056872</v>
+        <v>7.894787780118391</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.90982808009816</v>
+        <v>11.54143436995779</v>
       </c>
       <c r="O11">
-        <v>23.686950889831</v>
+        <v>15.99888749251484</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.38479004859968</v>
+        <v>18.09690903048141</v>
       </c>
       <c r="C12">
-        <v>7.978564171255298</v>
+        <v>7.169182578284364</v>
       </c>
       <c r="D12">
-        <v>5.786775071971398</v>
+        <v>5.788592934227278</v>
       </c>
       <c r="E12">
-        <v>11.57960350616724</v>
+        <v>8.402520093118428</v>
       </c>
       <c r="F12">
-        <v>26.62181816394565</v>
+        <v>21.02326059142679</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>23.59950889257083</v>
+        <v>14.92725992592782</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.34289794469986</v>
+        <v>14.43251811586356</v>
       </c>
       <c r="L12">
-        <v>9.877850148114723</v>
+        <v>7.958554083225032</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.89508272776646</v>
+        <v>11.48641961026757</v>
       </c>
       <c r="O12">
-        <v>23.67632060275335</v>
+        <v>16.0385453658373</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.36828818258235</v>
+        <v>18.04815286533968</v>
       </c>
       <c r="C13">
-        <v>7.976355036953383</v>
+        <v>7.1618696189766</v>
       </c>
       <c r="D13">
-        <v>5.783567931326285</v>
+        <v>5.779779528625379</v>
       </c>
       <c r="E13">
-        <v>11.57928765979964</v>
+        <v>8.392642675314288</v>
       </c>
       <c r="F13">
-        <v>26.62088942460478</v>
+        <v>20.99568214385114</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>23.60297613003968</v>
+        <v>14.92692318175744</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.33117630523471</v>
+        <v>14.39705391348616</v>
       </c>
       <c r="L13">
-        <v>9.876103096783426</v>
+        <v>7.944834777941264</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.89824758291795</v>
+        <v>11.49825586027199</v>
       </c>
       <c r="O13">
-        <v>23.67857841651375</v>
+        <v>16.02990178921452</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.31437299903581</v>
+        <v>17.88831604875087</v>
       </c>
       <c r="C14">
-        <v>7.969139553743609</v>
+        <v>7.13797525695423</v>
       </c>
       <c r="D14">
-        <v>5.773082823635057</v>
+        <v>5.750935891327861</v>
       </c>
       <c r="E14">
-        <v>11.57830919649056</v>
+        <v>8.360494049109841</v>
       </c>
       <c r="F14">
-        <v>26.61802340357041</v>
+        <v>20.90604249888051</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>23.61439112654339</v>
+        <v>14.92620493081944</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.2928868279459</v>
+        <v>14.28082855171314</v>
       </c>
       <c r="L14">
-        <v>9.870445207883723</v>
+        <v>7.900040077749752</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.90861009367865</v>
+        <v>11.53690275326328</v>
       </c>
       <c r="O14">
-        <v>23.68606208768932</v>
+        <v>16.0021040702599</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.28127360128539</v>
+        <v>17.78977081935803</v>
       </c>
       <c r="C15">
-        <v>7.964711443115448</v>
+        <v>7.123304724471518</v>
       </c>
       <c r="D15">
-        <v>5.766640564892798</v>
+        <v>5.733190859721556</v>
       </c>
       <c r="E15">
-        <v>11.57774952172591</v>
+        <v>8.340851562261088</v>
       </c>
       <c r="F15">
-        <v>26.6163930353564</v>
+        <v>20.85136683618365</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>23.62146579319922</v>
+        <v>14.92605479409288</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.26938616094696</v>
+        <v>14.20919974687735</v>
       </c>
       <c r="L15">
-        <v>9.867010119700675</v>
+        <v>7.872562033959984</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.91498913221542</v>
+        <v>11.56061115532578</v>
       </c>
       <c r="O15">
-        <v>23.69073858887814</v>
+        <v>15.98537614772727</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.09050230327988</v>
+        <v>17.2151905361535</v>
       </c>
       <c r="C16">
-        <v>7.939208600958931</v>
+        <v>7.038712747432206</v>
       </c>
       <c r="D16">
-        <v>5.729422582481519</v>
+        <v>5.630326603090716</v>
       </c>
       <c r="E16">
-        <v>11.57515124425612</v>
+        <v>8.229066177715772</v>
       </c>
       <c r="F16">
-        <v>26.60897037680436</v>
+        <v>20.54162553825995</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>23.66327401007952</v>
+        <v>14.92954821284376</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.13402658029062</v>
+        <v>13.79200959485433</v>
       </c>
       <c r="L16">
-        <v>9.847796383836684</v>
+        <v>7.714516832967131</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.95203152371473</v>
+        <v>11.69704666332437</v>
       </c>
       <c r="O16">
-        <v>23.71895523006406</v>
+        <v>15.89404063964289</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.97255638267753</v>
+        <v>16.85386583758481</v>
       </c>
       <c r="C17">
-        <v>7.923452068694059</v>
+        <v>6.986362923304608</v>
       </c>
       <c r="D17">
-        <v>5.706327144515806</v>
+        <v>5.566189142249032</v>
       </c>
       <c r="E17">
-        <v>11.57410181903316</v>
+        <v>8.161204943160731</v>
       </c>
       <c r="F17">
-        <v>26.60613238297502</v>
+        <v>20.35484894562685</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>23.69005108738343</v>
+        <v>14.93548075444226</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.05041677820501</v>
+        <v>13.53007623773376</v>
       </c>
       <c r="L17">
-        <v>9.836433597326931</v>
+        <v>7.617082161113552</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.97519099888724</v>
+        <v>11.78127678442435</v>
       </c>
       <c r="O17">
-        <v>23.73752914068237</v>
+        <v>15.84198400189899</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.90440576127786</v>
+        <v>16.64277673933113</v>
       </c>
       <c r="C18">
-        <v>7.914349225857409</v>
+        <v>6.956089321331868</v>
       </c>
       <c r="D18">
-        <v>5.692948174550048</v>
+        <v>5.528925228696943</v>
       </c>
       <c r="E18">
-        <v>11.57369875327263</v>
+        <v>8.122444508420614</v>
       </c>
       <c r="F18">
-        <v>26.60513121720889</v>
+        <v>20.24862744732665</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>23.70586719831692</v>
+        <v>14.94024792240986</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.00213366866289</v>
+        <v>13.37721087645251</v>
       </c>
       <c r="L18">
-        <v>9.830055320117063</v>
+        <v>7.560880163419722</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.9886719876345</v>
+        <v>11.82992703839487</v>
       </c>
       <c r="O18">
-        <v>23.7486764515868</v>
+        <v>15.81347742861197</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.88128006603409</v>
+        <v>16.57074331982927</v>
       </c>
       <c r="C19">
-        <v>7.911260350286736</v>
+        <v>6.945811536156876</v>
       </c>
       <c r="D19">
-        <v>5.688402118927251</v>
+        <v>5.516244724181929</v>
       </c>
       <c r="E19">
-        <v>11.57359676227045</v>
+        <v>8.109368355751041</v>
       </c>
       <c r="F19">
-        <v>26.60490070254715</v>
+        <v>20.21287164715902</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>23.71129344923836</v>
+        <v>14.94209115897035</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.985754333432983</v>
+        <v>13.32507381409761</v>
       </c>
       <c r="L19">
-        <v>9.82792289047288</v>
+        <v>7.541825206624464</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.99326397869739</v>
+        <v>11.84643484531625</v>
       </c>
       <c r="O19">
-        <v>23.75253040790435</v>
+        <v>15.80406957455497</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.98514470506759</v>
+        <v>16.89266697853762</v>
       </c>
       <c r="C20">
-        <v>7.925133547471465</v>
+        <v>6.991952652200921</v>
       </c>
       <c r="D20">
-        <v>5.708795573271603</v>
+        <v>5.573055507780835</v>
       </c>
       <c r="E20">
-        <v>11.57419278657865</v>
+        <v>8.168400978536097</v>
       </c>
       <c r="F20">
-        <v>26.60636918260657</v>
+        <v>20.37460704500036</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>23.68715770100502</v>
+        <v>14.93470814919374</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.05933754245596</v>
+        <v>13.55818797805508</v>
       </c>
       <c r="L20">
-        <v>9.837626936683936</v>
+        <v>7.627471194445159</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.97270905362506</v>
+        <v>11.77228948039154</v>
       </c>
       <c r="O20">
-        <v>23.73550387549554</v>
+        <v>15.84737641223722</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.33022490981783</v>
+        <v>17.9353973945956</v>
       </c>
       <c r="C21">
-        <v>7.971260675105239</v>
+        <v>7.14500082912108</v>
       </c>
       <c r="D21">
-        <v>5.776166695240981</v>
+        <v>5.759424141276949</v>
       </c>
       <c r="E21">
-        <v>11.57858833195216</v>
+        <v>8.369926615465475</v>
       </c>
       <c r="F21">
-        <v>26.61883914704019</v>
+        <v>20.93232374486628</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>23.61102103924868</v>
+        <v>14.92635529006284</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.30414331252327</v>
+        <v>14.31505788850759</v>
       </c>
       <c r="L21">
-        <v>9.8721007123519</v>
+        <v>7.91320577976989</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.90555976843399</v>
+        <v>11.52554375546576</v>
       </c>
       <c r="O21">
-        <v>23.68384466560804</v>
+        <v>16.01020649126223</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.55247251133379</v>
+        <v>18.58816689141468</v>
       </c>
       <c r="C22">
-        <v>8.001032829154529</v>
+        <v>7.243490905081776</v>
       </c>
       <c r="D22">
-        <v>5.819314777366543</v>
+        <v>5.8777752599379</v>
       </c>
       <c r="E22">
-        <v>11.58323743435724</v>
+        <v>8.503872750186686</v>
       </c>
       <c r="F22">
-        <v>26.63259257871167</v>
+        <v>21.30721803967115</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>23.56495984128352</v>
+        <v>14.93376578166952</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.46206784295274</v>
+        <v>14.79012918155669</v>
       </c>
       <c r="L22">
-        <v>9.896001682267167</v>
+        <v>8.098201209598715</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.86309364759257</v>
+        <v>11.36591721001442</v>
       </c>
       <c r="O22">
-        <v>23.65422306656907</v>
+        <v>16.12993895770445</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.43417882414663</v>
+        <v>18.24238144175626</v>
       </c>
       <c r="C23">
-        <v>7.985177989911685</v>
+        <v>7.191069034068338</v>
       </c>
       <c r="D23">
-        <v>5.796368331222733</v>
+        <v>5.81493034873007</v>
       </c>
       <c r="E23">
-        <v>11.58059407401657</v>
+        <v>8.432186969960496</v>
       </c>
       <c r="F23">
-        <v>26.62474035947557</v>
+        <v>21.10619598733101</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>23.58920486294764</v>
+        <v>14.92859389489833</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.37798639862415</v>
+        <v>14.53836207880218</v>
       </c>
       <c r="L23">
-        <v>9.883121417262997</v>
+        <v>7.999640021740515</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.88562905697027</v>
+        <v>11.45097194760703</v>
       </c>
       <c r="O23">
-        <v>23.66965344220571</v>
+        <v>16.06479226793627</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.97945458376315</v>
+        <v>16.87513544828441</v>
       </c>
       <c r="C24">
-        <v>7.92437348841417</v>
+        <v>6.989426086113766</v>
       </c>
       <c r="D24">
-        <v>5.707679911113568</v>
+        <v>5.569952438600179</v>
       </c>
       <c r="E24">
-        <v>11.57415103626326</v>
+        <v>8.165146858087935</v>
       </c>
       <c r="F24">
-        <v>26.60626016156971</v>
+        <v>20.36567079470865</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>23.68846448775505</v>
+        <v>14.93505322780757</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.05530512974312</v>
+        <v>13.54548575139414</v>
       </c>
       <c r="L24">
-        <v>9.837086946882662</v>
+        <v>7.622774886539731</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.97383062297893</v>
+        <v>11.77635193709174</v>
       </c>
       <c r="O24">
-        <v>23.73641803731202</v>
+        <v>15.84493408197728</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.47741139755568</v>
+        <v>15.27532021624049</v>
       </c>
       <c r="C25">
-        <v>7.857263008752606</v>
+        <v>6.76573737738217</v>
       </c>
       <c r="D25">
-        <v>5.608402410629573</v>
+        <v>5.29151299924404</v>
       </c>
       <c r="E25">
-        <v>11.57487169976249</v>
+        <v>7.887594750814678</v>
       </c>
       <c r="F25">
-        <v>26.61045916878746</v>
+        <v>19.61325456630851</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>23.81138094591088</v>
+        <v>14.99336090517311</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.70010032817901</v>
+        <v>12.39009582770568</v>
       </c>
       <c r="L25">
-        <v>9.793460124805856</v>
+        <v>7.210393468073299</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.07510250535228</v>
+        <v>12.13519145170947</v>
       </c>
       <c r="O25">
-        <v>23.82617115558732</v>
+        <v>15.66228295593884</v>
       </c>
     </row>
   </sheetData>
